--- a/public/admin/import-format.xlsx
+++ b/public/admin/import-format.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\laravel\ta-pm-lr\public\admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8013EEE-C674-46E3-8DE1-10E2874ACE60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F9642F-DB78-4582-9F41-841781C3A7F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="8856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>wbs</t>
   </si>
@@ -34,48 +34,50 @@
     <t>end</t>
   </si>
   <si>
-    <t>days</t>
-  </si>
-  <si>
     <t>actual_start</t>
   </si>
   <si>
     <t>actual_end</t>
   </si>
   <si>
-    <t>work_days</t>
-  </si>
-  <si>
-    <t>02/09/2021</t>
-  </si>
-  <si>
-    <t>03/09/2021</t>
-  </si>
-  <si>
     <t>1.1.1</t>
   </si>
   <si>
-    <t>01/09/2021</t>
-  </si>
-  <si>
     <t>List 1</t>
   </si>
   <si>
     <t>Task 1</t>
   </si>
   <si>
-    <t>Task 2</t>
+    <t>Subtask 1</t>
+  </si>
+  <si>
+    <t>1/1/2022</t>
+  </si>
+  <si>
+    <t>7/1/2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -98,9 +100,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,93 +420,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="8.88671875" style="5"/>
+    <col min="3" max="4" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1">
-        <v>44236</v>
-      </c>
-      <c r="D2" s="1">
-        <v>44478</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="6"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="6"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="6"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/admin/import-format.xlsx
+++ b/public/admin/import-format.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\laravel\ta-pm-lr\public\admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F9642F-DB78-4582-9F41-841781C3A7F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F69B2E-EC98-4F72-8DE8-916E9848ED9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="8856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>wbs</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>7/1/2022</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor set amet</t>
   </si>
 </sst>
 </file>
@@ -423,7 +429,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -441,16 +447,19 @@
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="3"/>
@@ -462,13 +471,15 @@
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -480,13 +491,15 @@
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -498,13 +511,15 @@
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
